--- a/fitting_tool/hazard_fitting_shahnazaryan_o'reilly.xlsx
+++ b/fitting_tool/hazard_fitting_shahnazaryan_o'reilly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davit\GitHub\HAZARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davit\GitHub\HAZARD\fitting_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47A1CE5-22D7-4046-A7ED-184FB9D90528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD17D787-3AB7-4148-807B-359DF4AE2657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1FBC883-8841-4FAD-893C-AE59B1C81143}"/>
+    <workbookView xWindow="4284" yWindow="1476" windowWidth="17280" windowHeight="9960" xr2:uid="{E1FBC883-8841-4FAD-893C-AE59B1C81143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -152,7 +152,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,15 +196,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1444,7 +1452,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA39E36A-F2AE-4933-8D4C-BB6A691CE1F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,15 +1475,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>160538</xdr:colOff>
+          <xdr:colOff>160020</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>276302</xdr:colOff>
+          <xdr:colOff>274320</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1485,7 +1493,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC463D6-FAB1-47E9-BD8E-9FEA73DDB51C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1818,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F411CC8A-D01D-47FA-91EA-7D9A49FB28A1}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,10 +1879,10 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>1E-3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>0.29463602579064202</v>
       </c>
       <c r="C3" s="1">
@@ -1903,10 +1911,10 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>0.271062925868506</v>
       </c>
       <c r="C4" s="1">
@@ -1915,10 +1923,10 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>0.01</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>0.22162286097089501</v>
       </c>
       <c r="C5" s="1">
@@ -1936,10 +1944,10 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>0.05</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>7.0688930568150093E-2</v>
       </c>
       <c r="C6" s="1">
@@ -1973,10 +1981,10 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>0.1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>3.2377829134123098E-2</v>
       </c>
       <c r="C7" s="1">
@@ -2009,10 +2017,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>0.15</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>1.7937096769666001E-2</v>
       </c>
       <c r="C8" s="1">
@@ -2045,10 +2053,10 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>0.2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>1.09909132455548E-2</v>
       </c>
       <c r="C9" s="1">
@@ -2057,10 +2065,10 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>0.3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>4.9730378053776999E-3</v>
       </c>
       <c r="C10" s="1">
@@ -2076,10 +2084,10 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>0.4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>2.63939967373458E-3</v>
       </c>
       <c r="C11" s="1">
@@ -2091,10 +2099,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>0.5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>1.55497679535996E-3</v>
       </c>
       <c r="C12" s="1">
@@ -2106,10 +2114,10 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>0.75</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>5.5372194696937495E-4</v>
       </c>
       <c r="C13" s="1">
@@ -2118,10 +2126,10 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>2.55580905922974E-4</v>
       </c>
       <c r="C14" s="1">
@@ -2140,10 +2148,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>1.5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="9">
         <v>8.3321239954927697E-5</v>
       </c>
       <c r="C15" s="1">
@@ -2162,10 +2170,10 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="9">
         <v>3.7178935427833102E-5</v>
       </c>
       <c r="C16" s="1">
@@ -2181,10 +2189,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>2.5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="9">
         <v>1.9719035815309599E-5</v>
       </c>
       <c r="C17" s="1">
@@ -2193,10 +2201,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="9">
         <v>1.1668653274837601E-5</v>
       </c>
       <c r="C18" s="1">
@@ -2205,10 +2213,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>3.5</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="9">
         <v>7.4438751100682197E-6</v>
       </c>
       <c r="C19" s="1">

--- a/fitting_tool/hazard_fitting_shahnazaryan_o'reilly.xlsx
+++ b/fitting_tool/hazard_fitting_shahnazaryan_o'reilly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davit\GitHub\HAZARD\fitting_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD17D787-3AB7-4148-807B-359DF4AE2657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D94C363-2605-41F2-85C7-02A48BEBA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="1476" windowWidth="17280" windowHeight="9960" xr2:uid="{E1FBC883-8841-4FAD-893C-AE59B1C81143}"/>
+    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{E1FBC883-8841-4FAD-893C-AE59B1C81143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Hazard data</t>
   </si>
@@ -67,9 +67,6 @@
     <t>APOE</t>
   </si>
   <si>
-    <t>Target Sa</t>
-  </si>
-  <si>
     <t>Select 3 points on the hazard curve to target for fitting</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t>Construct a 3 by 3 matrix</t>
-  </si>
-  <si>
-    <t>Corresponding APOE</t>
   </si>
   <si>
     <t>Log of APOE</t>
@@ -108,6 +102,18 @@
   <si>
     <t>Predicted APOE</t>
   </si>
+  <si>
+    <t>Target return periods</t>
+  </si>
+  <si>
+    <t>SA values</t>
+  </si>
+  <si>
+    <t>APOE values</t>
+  </si>
+  <si>
+    <t>Return periods</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +157,20 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +193,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -196,17 +208,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -266,7 +277,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$19</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -326,7 +337,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$19</c:f>
+              <c:f>Sheet1!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -411,7 +422,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$19</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -476,55 +487,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.29463602579064113</c:v>
+                  <c:v>0.12822454187400822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35402093893485975</c:v>
+                  <c:v>0.24628490323807287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27490750601716413</c:v>
+                  <c:v>0.22162286097089448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0688930568150121E-2</c:v>
+                  <c:v>7.0688930568149996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8257737549083287E-2</c:v>
+                  <c:v>2.9357349209667406E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5064514200708208E-2</c:v>
+                  <c:v>1.5762052924376851E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2494272243293478E-3</c:v>
+                  <c:v>9.6603526514056903E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3868506861847378E-3</c:v>
+                  <c:v>4.5264265951499441E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4790413386165042E-3</c:v>
+                  <c:v>2.51871968686868E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5549767953599639E-3</c:v>
+                  <c:v>1.5549767953599572E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3188023742479687E-4</c:v>
+                  <c:v>6.0857801066341928E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1999133316379006E-4</c:v>
+                  <c:v>2.9804236557970419E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1568294736977842E-4</c:v>
+                  <c:v>1.0179745116310593E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3919269004044568E-5</c:v>
+                  <c:v>4.5262944763834807E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9126969352220067E-5</c:v>
+                  <c:v>2.3481360595688899E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7341848749048276E-5</c:v>
+                  <c:v>1.3491749414717547E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1066387410001073E-5</c:v>
+                  <c:v>8.339515318117936E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,16 +1447,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>132233</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>87236</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25802</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>169794</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1824,408 +1835,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F411CC8A-D01D-47FA-91EA-7D9A49FB28A1}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="23.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6">
         <v>5</v>
       </c>
+      <c r="I2" s="6">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6">
+        <v>650</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3">
-        <f>A3</f>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>0.29463602579064202</v>
+      </c>
+      <c r="B3" s="6">
         <v>1E-3</v>
       </c>
-      <c r="I2" s="3">
-        <f>A6</f>
-        <v>0.05</v>
-      </c>
-      <c r="J2" s="3">
-        <f>A12</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0.29463602579064202</v>
-      </c>
       <c r="C3" s="1">
-        <f>$I$14*EXP(-$I$16*LN(A3)^2-$I$15*LN(A3))</f>
-        <v>0.29463602579064113</v>
+        <f t="shared" ref="C3:C19" si="0">$I$15*EXP(-$I$17*LN(B3)^2-$I$16*LN(B3))</f>
+        <v>0.12822454187400822</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3">
-        <f>B3</f>
-        <v>0.29463602579064202</v>
-      </c>
-      <c r="I3" s="3">
-        <f>B6</f>
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <f>_xlfn.IFNA(INDEX($A:$A,MATCH(M12,$A:$A,-1)),$A$3)</f>
+        <v>0.22162286097089501</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:J3" si="1">_xlfn.IFNA(INDEX($A:$A,MATCH(N12,$A:$A,-1)),$A$3)</f>
         <v>7.0688930568150093E-2</v>
       </c>
-      <c r="J3" s="3">
-        <f>B12</f>
+      <c r="J3" s="1">
+        <f t="shared" si="1"/>
         <v>1.55497679535996E-3</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
+      <c r="Y3" s="2">
+        <f>1/A3</f>
+        <v>3.3940180849118726</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>0.271062925868506</v>
+      </c>
+      <c r="B4" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B4" s="8">
-        <v>0.271062925868506</v>
-      </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C19" si="0">$I$14*EXP(-$I$16*LN(A4)^2-$I$15*LN(A4))</f>
-        <v>0.35402093893485975</v>
+        <f t="shared" si="0"/>
+        <v>0.24628490323807287</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <f>_xlfn.IFNA(INDEX($B:$B,MATCH(M12,$A:$A,-1)),$B$3)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:J4" si="2">_xlfn.IFNA(INDEX($B:$B,MATCH(N12,$A:$A,-1)),$B$3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>1/A4</f>
+        <v>3.6891802772213307</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0.22162286097089501</v>
+      </c>
+      <c r="B5" s="6">
         <v>0.01</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.22162286097089501</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.27490750601716413</v>
-      </c>
-      <c r="G5" s="4" t="s">
+        <v>0.22162286097089448</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>8</v>
+      <c r="Y5" s="2">
+        <f>1/A5</f>
+        <v>4.5121698890590833</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>7.0688930568150093E-2</v>
+      </c>
+      <c r="B6" s="6">
         <v>0.05</v>
-      </c>
-      <c r="B6" s="8">
-        <v>7.0688930568150093E-2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>7.0688930568150121E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <f>-LN(H2)</f>
-        <v>6.9077552789821368</v>
-      </c>
-      <c r="J6" s="5">
-        <f>-(LN(H2)^2)</f>
-        <v>-47.717082994305578</v>
+        <v>7.0688930568149996E-2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L6" s="1" cm="1">
-        <f t="array" ref="L6:N8">MINVERSE(H6:J8)</f>
-        <v>8.5410902815647782E-2</v>
+        <f t="array" ref="L6:N8">MINVERSE(H7:J9)</f>
+        <v>0.32980165574011311</v>
       </c>
       <c r="M6" s="1">
-        <v>-0.53155146040667312</v>
+        <v>-0.86135311614678756</v>
       </c>
       <c r="N6" s="1">
-        <v>1.4461405575910251</v>
+        <v>1.5315514604066744</v>
       </c>
       <c r="P6" s="1">
         <f>LN(H3)</f>
-        <v>-1.2220144952927918</v>
+        <v>-1.5067781662039075</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>1/A6</f>
+        <v>14.146486471964881</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>3.2377829134123098E-2</v>
+      </c>
+      <c r="B7" s="6">
         <v>0.1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3.2377829134123098E-2</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>2.8257737549083287E-2</v>
+        <v>2.9357349209667406E-2</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
-        <f>-LN(I2)</f>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="J7" s="5">
-        <f>-(LN(I2)^2)</f>
-        <v>-8.9744118548129634</v>
+      <c r="I7" s="4">
+        <f>-LN(H4)</f>
+        <v>4.6051701859880909</v>
+      </c>
+      <c r="J7" s="4">
+        <f>-(LN(H4)^2)</f>
+        <v>-21.207592441913587</v>
       </c>
       <c r="L7" s="1">
-        <v>-0.15173274571863993</v>
+        <v>-0.58589371050217864</v>
       </c>
       <c r="M7" s="1">
-        <v>0.84381661127340557</v>
+        <v>1.4297103217755844</v>
       </c>
       <c r="N7" s="1">
-        <v>-0.69208386555476553</v>
+        <v>-0.84381661127340579</v>
       </c>
       <c r="P7" s="1">
         <f>LN(I3)</f>
         <v>-2.6494662873880341</v>
       </c>
+      <c r="Y7" s="2">
+        <f>1/A7</f>
+        <v>30.885331930611024</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1.7937096769666001E-2</v>
+      </c>
+      <c r="B8" s="6">
         <v>0.15</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1.7937096769666001E-2</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>1.5064514200708208E-2</v>
+        <v>1.5762052924376851E-2</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
-        <f>-LN(J2)</f>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="J8" s="5">
-        <f>-(LN(J2)^2)</f>
-        <v>-0.48045301391820139</v>
+      <c r="I8" s="4">
+        <f>-LN(I4)</f>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="J8" s="4">
+        <f>-(LN(I4)^2)</f>
+        <v>-8.9744118548129634</v>
       </c>
       <c r="L8" s="1">
-        <v>-4.1132476028573811E-2</v>
+        <v>-0.15882701448776657</v>
       </c>
       <c r="M8" s="1">
-        <v>0.11101531900519106</v>
+        <v>0.26984233349295766</v>
       </c>
       <c r="N8" s="1">
-        <v>-6.9882842976617246E-2</v>
+        <v>-0.1110153190051911</v>
       </c>
       <c r="P8" s="1">
         <f>LN(J3)</f>
         <v>-6.4662946560603789</v>
       </c>
+      <c r="Y8" s="2">
+        <f>1/A8</f>
+        <v>55.750382173949802</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1.09909132455548E-2</v>
+      </c>
+      <c r="B9" s="6">
         <v>0.2</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1.09909132455548E-2</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9.2494272243293478E-3</v>
+        <v>9.6603526514056903E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <f>-LN(J4)</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J9" s="4">
+        <f>-(LN(J4)^2)</f>
+        <v>-0.48045301391820139</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>1/A9</f>
+        <v>90.984250139945672</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>4.9730378053776999E-3</v>
+      </c>
+      <c r="B10" s="6">
         <v>0.3</v>
-      </c>
-      <c r="B10" s="8">
-        <v>4.9730378053776999E-3</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>4.3868506861847378E-3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" cm="1">
-        <f t="array" ref="H10:H12">MMULT(_xlfn.ANCHORARRAY(L6),P6:P8)</f>
-        <v>-8.0472166464004324</v>
+        <v>4.5264265951499441E-3</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>1/A10</f>
+        <v>201.08433499512688</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2.63939967373458E-3</v>
+      </c>
+      <c r="B11" s="6">
         <v>0.4</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2.63939967373458E-3</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>2.4790413386165042E-3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.4249741517542414</v>
+        <v>2.51871968686868E-3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" cm="1">
+        <f t="array" ref="H11:H13">MMULT(_xlfn.ANCHORARRAY(L6),P6:P8)</f>
+        <v>-8.1182749151887048</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>1/A11</f>
+        <v>378.87403334602396</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1.55497679535996E-3</v>
+      </c>
+      <c r="B12" s="6">
         <v>0.5</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1.55497679535996E-3</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>1.5549767953599639E-3</v>
+        <v>1.5549767953599572E-3</v>
       </c>
       <c r="H12" s="1">
-        <v>0.20801619093632537</v>
+        <v>2.5512093965979679</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <f>1/H2</f>
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" ref="N12:O12" si="3">1/I2</f>
+        <v>0.05</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5384615384615385E-3</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>1/A12</f>
+        <v>643.09641338957158</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>5.5372194696937495E-4</v>
+      </c>
+      <c r="B13" s="6">
         <v>0.75</v>
-      </c>
-      <c r="B13" s="8">
-        <v>5.5372194696937495E-4</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>6.3188023742479687E-4</v>
+        <v>6.0857801066341928E-4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.24223667615791339</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>1/A13</f>
+        <v>1805.9605646357154</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>2.55580905922974E-4</v>
+      </c>
+      <c r="B14" s="6">
         <v>1</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2.55580905922974E-4</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>3.1999133316379006E-4</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="6">
-        <f>EXP(H10)</f>
-        <v>3.1999133316379006E-4</v>
+        <v>2.9804236557970419E-4</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>1/A14</f>
+        <v>3912.6553542359547</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>8.3321239954927697E-5</v>
+      </c>
+      <c r="B15" s="6">
         <v>1.5</v>
-      </c>
-      <c r="B15" s="9">
-        <v>8.3321239954927697E-5</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>1.1568294736977842E-4</v>
+        <v>1.0179745116310593E-4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6">
-        <f>H11</f>
-        <v>2.4249741517542414</v>
+        <v>9</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="8">
+        <f>EXP(H11)</f>
+        <v>2.9804236557970419E-4</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>1/A15</f>
+        <v>12001.741699246748</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>3.7178935427833102E-5</v>
+      </c>
+      <c r="B16" s="6">
         <v>2</v>
-      </c>
-      <c r="B16" s="9">
-        <v>3.7178935427833102E-5</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>5.3919269004044568E-5</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="6">
+        <v>4.5262944763834807E-5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="8">
         <f>H12</f>
-        <v>0.20801619093632537</v>
+        <v>2.5512093965979679</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>1/A16</f>
+        <v>26896.950880723023</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>1.9719035815309599E-5</v>
+      </c>
+      <c r="B17" s="6">
         <v>2.5</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1.9719035815309599E-5</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>2.9126969352220067E-5</v>
+        <v>2.3481360595688899E-5</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="8">
+        <f>H13</f>
+        <v>0.24223667615791339</v>
+      </c>
+      <c r="Y17" s="2">
+        <f>1/A17</f>
+        <v>50712.418668240018</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>1.1668653274837601E-5</v>
+      </c>
+      <c r="B18" s="6">
         <v>3</v>
-      </c>
-      <c r="B18" s="9">
-        <v>1.1668653274837601E-5</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>1.7341848749048276E-5</v>
+        <v>1.3491749414717547E-5</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>1/A18</f>
+        <v>85699.692710589821</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>7.4438751100682197E-6</v>
+      </c>
+      <c r="B19" s="6">
         <v>3.5</v>
-      </c>
-      <c r="B19" s="9">
-        <v>7.4438751100682197E-6</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>1.1066387410001073E-5</v>
+        <v>8.339515318117936E-6</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>1/A19</f>
+        <v>134338.632125551</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G21"/>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="Y20" s="2" t="e">
+        <f>1/A20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y21" s="2" t="e">
+        <f>1/A21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y22" s="2" t="e">
+        <f>1/A22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y23" s="2" t="e">
+        <f>1/A23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y24" s="2" t="e">
+        <f>1/A24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y25" s="2" t="e">
+        <f>1/A25</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fitting_tool/hazard_fitting_shahnazaryan_o'reilly.xlsx
+++ b/fitting_tool/hazard_fitting_shahnazaryan_o'reilly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davit\GitHub\HAZARD\fitting_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D94C363-2605-41F2-85C7-02A48BEBA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F7FF04-2A50-413D-9FFD-E3CABCFA7CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{E1FBC883-8841-4FAD-893C-AE59B1C81143}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E1FBC883-8841-4FAD-893C-AE59B1C81143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Hazard data</t>
   </si>
@@ -64,19 +64,10 @@
     <t>Sa (g)</t>
   </si>
   <si>
-    <t>APOE</t>
-  </si>
-  <si>
     <t>Select 3 points on the hazard curve to target for fitting</t>
   </si>
   <si>
-    <t>0.00031999133316379234, 2.4249741517542382, 0.208016190936325</t>
-  </si>
-  <si>
     <t>Construct a 3 by 3 matrix</t>
-  </si>
-  <si>
-    <t>Log of APOE</t>
   </si>
   <si>
     <t>Inverse</t>
@@ -100,19 +91,25 @@
     <t>k2</t>
   </si>
   <si>
-    <t>Predicted APOE</t>
-  </si>
-  <si>
     <t>Target return periods</t>
   </si>
   <si>
     <t>SA values</t>
   </si>
   <si>
-    <t>APOE values</t>
+    <t>Return periods</t>
   </si>
   <si>
-    <t>Return periods</t>
+    <t>MAFE values</t>
+  </si>
+  <si>
+    <t>MAFE</t>
+  </si>
+  <si>
+    <t>Predicted MAFE</t>
+  </si>
+  <si>
+    <t>Log of MAFE</t>
   </si>
 </sst>
 </file>
@@ -724,13 +721,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Annual</a:t>
+                  <a:t>Mean annual frequency of exceedance, </a:t>
                 </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> probability of exceedance, APOE</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MAFE</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1447,16 +1448,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>25802</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112085</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>169794</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161862</xdr:rowOff>
+      <xdr:colOff>116454</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78042</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1837,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F411CC8A-D01D-47FA-91EA-7D9A49FB28A1}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,24 +1859,21 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6">
         <v>5</v>
@@ -1887,7 +1885,7 @@
         <v>650</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -1902,7 +1900,7 @@
         <v>0.12822454187400822</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1">
         <f>_xlfn.IFNA(INDEX($A:$A,MATCH(M12,$A:$A,-1)),$A$3)</f>
@@ -1921,7 +1919,7 @@
       <c r="U3" s="2"/>
       <c r="W3" s="2"/>
       <c r="Y3" s="2">
-        <f>1/A3</f>
+        <f t="shared" ref="Y3:Y25" si="2">1/A3</f>
         <v>3.3940180849118726</v>
       </c>
     </row>
@@ -1937,22 +1935,22 @@
         <v>0.24628490323807287</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <f>_xlfn.IFNA(INDEX($B:$B,MATCH(M12,$A:$A,-1)),$B$3)</f>
         <v>0.01</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:J4" si="2">_xlfn.IFNA(INDEX($B:$B,MATCH(N12,$A:$A,-1)),$B$3)</f>
+        <f t="shared" ref="I4:J4" si="3">_xlfn.IFNA(INDEX($B:$B,MATCH(N12,$A:$A,-1)),$B$3)</f>
         <v>0.05</v>
       </c>
       <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y4" s="2">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <f>1/A4</f>
         <v>3.6891802772213307</v>
       </c>
     </row>
@@ -1968,13 +1966,13 @@
         <v>0.22162286097089448</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Y5" s="2">
-        <f>1/A5</f>
+        <f t="shared" si="2"/>
         <v>4.5121698890590833</v>
       </c>
     </row>
@@ -1990,7 +1988,7 @@
         <v>7.0688930568149996E-2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1" cm="1">
         <f t="array" ref="L6:N8">MINVERSE(H7:J9)</f>
@@ -2007,7 +2005,7 @@
         <v>-1.5067781662039075</v>
       </c>
       <c r="Y6" s="2">
-        <f>1/A6</f>
+        <f t="shared" si="2"/>
         <v>14.146486471964881</v>
       </c>
     </row>
@@ -2047,7 +2045,7 @@
         <v>-2.6494662873880341</v>
       </c>
       <c r="Y7" s="2">
-        <f>1/A7</f>
+        <f t="shared" si="2"/>
         <v>30.885331930611024</v>
       </c>
     </row>
@@ -2087,7 +2085,7 @@
         <v>-6.4662946560603789</v>
       </c>
       <c r="Y8" s="2">
-        <f>1/A8</f>
+        <f t="shared" si="2"/>
         <v>55.750382173949802</v>
       </c>
     </row>
@@ -2114,7 +2112,7 @@
         <v>-0.48045301391820139</v>
       </c>
       <c r="Y9" s="2">
-        <f>1/A9</f>
+        <f t="shared" si="2"/>
         <v>90.984250139945672</v>
       </c>
     </row>
@@ -2130,7 +2128,7 @@
         <v>4.5264265951499441E-3</v>
       </c>
       <c r="Y10" s="2">
-        <f>1/A10</f>
+        <f t="shared" si="2"/>
         <v>201.08433499512688</v>
       </c>
     </row>
@@ -2146,14 +2144,14 @@
         <v>2.51871968686868E-3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1" cm="1">
         <f t="array" ref="H11:H13">MMULT(_xlfn.ANCHORARRAY(L6),P6:P8)</f>
         <v>-8.1182749151887048</v>
       </c>
       <c r="Y11" s="2">
-        <f>1/A11</f>
+        <f t="shared" si="2"/>
         <v>378.87403334602396</v>
       </c>
     </row>
@@ -2172,22 +2170,22 @@
         <v>2.5512093965979679</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M12" s="1">
         <f>1/H2</f>
         <v>0.2</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12:O12" si="3">1/I2</f>
+        <f t="shared" ref="N12:O12" si="4">1/I2</f>
         <v>0.05</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5384615384615385E-3</v>
       </c>
       <c r="Y12" s="2">
-        <f>1/A12</f>
+        <f t="shared" si="2"/>
         <v>643.09641338957158</v>
       </c>
     </row>
@@ -2206,7 +2204,7 @@
         <v>0.24223667615791339</v>
       </c>
       <c r="Y13" s="2">
-        <f>1/A13</f>
+        <f t="shared" si="2"/>
         <v>1805.9605646357154</v>
       </c>
     </row>
@@ -2222,7 +2220,7 @@
         <v>2.9804236557970419E-4</v>
       </c>
       <c r="Y14" s="2">
-        <f>1/A14</f>
+        <f t="shared" si="2"/>
         <v>3912.6553542359547</v>
       </c>
     </row>
@@ -2238,17 +2236,17 @@
         <v>1.0179745116310593E-4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8">
         <f>EXP(H11)</f>
         <v>2.9804236557970419E-4</v>
       </c>
       <c r="Y15" s="2">
-        <f>1/A15</f>
+        <f t="shared" si="2"/>
         <v>12001.741699246748</v>
       </c>
     </row>
@@ -2264,17 +2262,17 @@
         <v>4.5262944763834807E-5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8">
         <f>H12</f>
         <v>2.5512093965979679</v>
       </c>
       <c r="Y16" s="2">
-        <f>1/A16</f>
+        <f t="shared" si="2"/>
         <v>26896.950880723023</v>
       </c>
     </row>
@@ -2290,14 +2288,14 @@
         <v>2.3481360595688899E-5</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I17" s="8">
         <f>H13</f>
         <v>0.24223667615791339</v>
       </c>
       <c r="Y17" s="2">
-        <f>1/A17</f>
+        <f t="shared" si="2"/>
         <v>50712.418668240018</v>
       </c>
     </row>
@@ -2313,7 +2311,7 @@
         <v>1.3491749414717547E-5</v>
       </c>
       <c r="Y18" s="2">
-        <f>1/A18</f>
+        <f t="shared" si="2"/>
         <v>85699.692710589821</v>
       </c>
     </row>
@@ -2329,7 +2327,7 @@
         <v>8.339515318117936E-6</v>
       </c>
       <c r="Y19" s="2">
-        <f>1/A19</f>
+        <f t="shared" si="2"/>
         <v>134338.632125551</v>
       </c>
     </row>
@@ -2337,37 +2335,37 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="Y20" s="2" t="e">
-        <f>1/A20</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y21" s="2" t="e">
-        <f>1/A21</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y22" s="2" t="e">
-        <f>1/A22</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y23" s="2" t="e">
-        <f>1/A23</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y24" s="2" t="e">
-        <f>1/A24</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y25" s="2" t="e">
-        <f>1/A25</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
